--- a/Factures_Excel/1487 - Maranda Lauzon.xlsx
+++ b/Factures_Excel/1487 - Maranda Lauzon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EF7E5-8428-4CC0-99DE-4CCCA1ADA1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A31C9-5C6F-49EC-B829-2CB3E8994F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22-11-19" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId10"/>
     <sheet name="2024-10-17 - 24-24561" sheetId="14" r:id="rId11"/>
     <sheet name="2024-12-22 - 24-24717" sheetId="15" r:id="rId12"/>
+    <sheet name="2025-03-01 - 25-24771" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -45,6 +46,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'18-12-19'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-10-17 - 24-24561'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2024-12-22 - 24-24717'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24771'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'21-07-21'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22-11-19'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'28-07-20'!$A$1:$F$89</definedName>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="140">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -474,6 +476,21 @@
   </si>
   <si>
     <t xml:space="preserve"> - Prise de connaissance et analyse de la planification prévue des acheteurs et commentaires ;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale pré-clôture;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rédaction de directives aux juristes afin de mettre en place la planification fiscale;</t>
   </si>
 </sst>
 </file>
@@ -1173,20 +1190,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1200,13 +1205,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,12 +1251,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,6 +1505,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87839958-BED6-AE46-F14C-EFC19821B38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2363,14 +2446,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2391,277 +2474,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2691,17 +2774,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="118"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="121"/>
+      <c r="D67" s="121"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="118"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="118"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="121"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2808,19 +2891,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2828,9 +2911,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2865,31 +2948,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2901,26 +2984,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2930,6 +3013,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2946,34 +3057,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3010,10 +3093,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127"/>
+      <c r="C1" s="128"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3651,13 +3734,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4128,10 +4211,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="129" t="s">
+      <c r="B81" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="130"/>
+      <c r="C81" s="132"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
         <v>3118.7000000000003</v>
@@ -4148,30 +4231,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="113"/>
-      <c r="B83" s="131"/>
-      <c r="C83" s="132"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="132"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
       <c r="F83" s="114"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="133" t="s">
+      <c r="A84" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="133"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="134" t="s">
+      <c r="A85" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="134"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4191,14 +4274,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4218,6 +4301,829 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A63E8-DAA3-4C43-9463-C181CB3B9080}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
+      <c r="B34" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
+      <c r="B35" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="72"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="72"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="72"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="72"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="72"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="72"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="72"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="72"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="72"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="72"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="72"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="72"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="72"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="72"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="72"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="72"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="85">
+        <v>4.75</v>
+      </c>
+      <c r="D66" s="86">
+        <v>350</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="72"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="72"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="72"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="94"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="95">
+        <v>1662.5</v>
+      </c>
+      <c r="F69" s="95"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="97"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="98">
+        <v>0</v>
+      </c>
+      <c r="F70" s="98"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="97"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="98">
+        <v>0</v>
+      </c>
+      <c r="F71" s="98"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="97"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="98">
+        <v>0</v>
+      </c>
+      <c r="F72" s="98"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="94"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="100">
+        <v>1662.5</v>
+      </c>
+      <c r="F73" s="100"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="97"/>
+      <c r="E74" s="102">
+        <v>83.13</v>
+      </c>
+      <c r="F74" s="102"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="104">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="105">
+        <v>165.83</v>
+      </c>
+      <c r="F75" s="102"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="94"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="108">
+        <v>1911.46</v>
+      </c>
+      <c r="F77" s="109"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="103"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="103"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="103"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="132"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="112">
+        <v>1911.46</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="113"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="114"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="73"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="115"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="115"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F595290C-8A82-433E-9EC3-5F7856BCB59E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4400,7 +5306,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="60" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61"/>
@@ -4471,7 +5377,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F28" s="66"/>
     </row>
@@ -4484,13 +5390,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4522,7 +5428,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="72"/>
       <c r="B34" s="77" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79"/>
@@ -4542,7 +5448,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="72"/>
       <c r="B36" s="77" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="79"/>
@@ -4551,7 +5457,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
-      <c r="B37" s="77"/>
+      <c r="B37" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C37" s="78"/>
       <c r="D37" s="79"/>
       <c r="E37" s="79"/>
@@ -4559,7 +5467,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="72"/>
-      <c r="B38" s="77"/>
+      <c r="B38" s="77" t="s">
+        <v>138</v>
+      </c>
       <c r="C38" s="78"/>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
@@ -4567,7 +5477,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="72"/>
-      <c r="B39" s="77"/>
+      <c r="B39" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C39" s="78"/>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
@@ -4575,7 +5487,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
-      <c r="B40" s="77"/>
+      <c r="B40" s="77" t="s">
+        <v>40</v>
+      </c>
       <c r="C40" s="80"/>
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
@@ -4583,7 +5497,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
-      <c r="B41" s="77"/>
+      <c r="B41" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C41" s="78"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
@@ -4591,7 +5507,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
-      <c r="B42" s="77"/>
+      <c r="B42" s="77" t="s">
+        <v>139</v>
+      </c>
       <c r="C42" s="78"/>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
@@ -4599,7 +5517,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
-      <c r="B43" s="77"/>
+      <c r="B43" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C43" s="78"/>
       <c r="D43" s="79"/>
       <c r="E43" s="79"/>
@@ -4607,7 +5527,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
-      <c r="B44" s="77"/>
+      <c r="B44" s="77" t="s">
+        <v>103</v>
+      </c>
       <c r="C44" s="78"/>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
@@ -4767,8 +5689,8 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="72"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="136"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="116"/>
       <c r="D64" s="76"/>
       <c r="E64" s="79"/>
       <c r="F64" s="79"/>
@@ -4789,10 +5711,10 @@
       <c r="A66" s="72"/>
       <c r="B66" s="77"/>
       <c r="C66" s="85">
-        <v>4.75</v>
+        <v>10.5</v>
       </c>
       <c r="D66" s="86">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E66" s="90"/>
       <c r="F66" s="90"/>
@@ -4821,7 +5743,7 @@
       <c r="C69" s="94"/>
       <c r="D69" s="61"/>
       <c r="E69" s="95">
-        <v>1662.5</v>
+        <v>4200</v>
       </c>
       <c r="F69" s="95"/>
     </row>
@@ -4869,7 +5791,7 @@
       <c r="C73" s="94"/>
       <c r="D73" s="61"/>
       <c r="E73" s="100">
-        <v>1662.5</v>
+        <v>4200</v>
       </c>
       <c r="F73" s="100"/>
     </row>
@@ -4883,7 +5805,7 @@
       </c>
       <c r="D74" s="97"/>
       <c r="E74" s="102">
-        <v>83.13</v>
+        <v>210</v>
       </c>
       <c r="F74" s="102"/>
     </row>
@@ -4897,7 +5819,7 @@
       </c>
       <c r="D75" s="97"/>
       <c r="E75" s="105">
-        <v>165.83</v>
+        <v>418.95</v>
       </c>
       <c r="F75" s="102"/>
     </row>
@@ -4917,7 +5839,7 @@
       <c r="C77" s="94"/>
       <c r="D77" s="107"/>
       <c r="E77" s="108">
-        <v>1911.46</v>
+        <v>4828.95</v>
       </c>
       <c r="F77" s="109"/>
     </row>
@@ -4951,13 +5873,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="129" t="s">
+      <c r="B81" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="130"/>
+      <c r="C81" s="132"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
-        <v>1911.46</v>
+        <v>4828.95</v>
       </c>
       <c r="F81" s="62"/>
     </row>
@@ -4971,30 +5893,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="113"/>
-      <c r="B83" s="131"/>
-      <c r="C83" s="132"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="132"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
       <c r="F83" s="114"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="133" t="s">
+      <c r="A84" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="133"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="134" t="s">
+      <c r="A85" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="134"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
-      <c r="E85" s="134"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5014,14 +5936,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5182,14 +6104,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -5203,307 +6125,307 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118" t="s">
+      <c r="B49" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118" t="s">
+      <c r="B57" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118" t="s">
+      <c r="B59" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118" t="s">
+      <c r="B65" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -5641,19 +6563,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -5661,9 +6583,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -5698,31 +6620,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -5734,26 +6656,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5763,6 +6685,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B64:D64"/>
@@ -5779,34 +6729,6 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{5DE0DF59-5D69-4A7F-9BEF-9BA4FE756207}">
@@ -5964,14 +6886,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -5985,287 +6907,287 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -6403,19 +7325,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6423,9 +7345,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6460,31 +7382,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6496,26 +7418,794 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{7F1DDC8D-4518-41D2-8588-BEA6C464FC08}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224C32A-E791-48BE-9254-11D6F5162D54}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="51">
+        <v>24.25</v>
+      </c>
+      <c r="D68" s="52">
+        <v>285</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D68*C68</f>
+        <v>6911.25</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>60</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>6971.25</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>348.56</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>695.38</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>8015.1900000000005</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>8015.1900000000005</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6571,774 +8261,6 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{7F1DDC8D-4518-41D2-8588-BEA6C464FC08}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224C32A-E791-48BE-9254-11D6F5162D54}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="118" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="51">
-        <v>24.25</v>
-      </c>
-      <c r="D68" s="52">
-        <v>285</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D68*C68</f>
-        <v>6911.25</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>60</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>6971.25</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>348.56</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>695.38</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>8015.1900000000005</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>8015.1900000000005</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{F476F782-AE5B-42CF-B8B1-CAD677C0832A}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -7494,14 +8416,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -7515,267 +8437,267 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -7913,19 +8835,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7933,9 +8855,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7970,31 +8892,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="126" t="s">
+      <c r="A84" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="126"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="126"/>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8006,26 +8928,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="116" t="s">
+      <c r="A87" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="116"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="116"/>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="121"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8035,14 +8957,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
@@ -8055,29 +8992,14 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{6CD9583C-9E31-4AF9-ADFE-77471EAF0A3F}">
@@ -8235,14 +9157,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8256,267 +9178,267 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -8646,19 +9568,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125" t="s">
+      <c r="B77" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8666,9 +9588,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="120"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8703,31 +9625,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="117"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="126" t="s">
+      <c r="A84" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="126"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="126"/>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8739,26 +9661,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="116" t="s">
+      <c r="A87" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="116"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="116"/>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="121"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8768,6 +9690,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
@@ -8780,37 +9733,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{3CBF704E-D6EC-46AA-96B3-D6BCF0CFD8CC}">
@@ -8968,14 +9890,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8989,277 +9911,277 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -9389,19 +10311,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -9409,9 +10331,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -9446,31 +10368,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -9482,26 +10404,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9511,6 +10433,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B79:D79"/>
@@ -9527,34 +10477,6 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{2B309465-D181-4674-B557-8B329EB249C8}">
@@ -9712,14 +10634,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9733,283 +10655,283 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118" t="s">
+      <c r="B40" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -10139,19 +11061,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10159,9 +11081,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10196,31 +11118,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10232,26 +11154,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10261,6 +11183,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
@@ -10273,38 +11227,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{C4B72124-0286-4B86-9C57-3808388C341F}">
@@ -10462,14 +11384,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -10483,53 +11405,53 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
@@ -10545,217 +11467,217 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="118"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="118"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="118"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="118"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -10885,19 +11807,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="120"/>
-      <c r="D77" s="120"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125" t="s">
+      <c r="B78" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10905,9 +11827,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="120"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10942,31 +11864,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="123"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="123"/>
-      <c r="E83" s="123"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="117" t="s">
+      <c r="A84" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="117"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="126" t="s">
+      <c r="A85" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10978,26 +11900,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="124"/>
-      <c r="E87" s="124"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="116"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="116"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="126"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11007,14 +11929,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -11027,29 +11964,14 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{F9192322-4CDF-4FB1-B816-5FFB58D1DC30}">

--- a/Factures_Excel/1487 - Maranda Lauzon.xlsx
+++ b/Factures_Excel/1487 - Maranda Lauzon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A31C9-5C6F-49EC-B829-2CB3E8994F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A2F682-9C5D-4935-ACA6-EE8D0B1BE642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22-11-19" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2024-10-17 - 24-24561" sheetId="14" r:id="rId11"/>
     <sheet name="2024-12-22 - 24-24717" sheetId="15" r:id="rId12"/>
     <sheet name="2025-03-01 - 25-24771" sheetId="16" r:id="rId13"/>
+    <sheet name="2025-03-31 - 25-24866" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -47,6 +48,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-10-17 - 24-24561'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2024-12-22 - 24-24717'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24771'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'2025-03-31 - 25-24866'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'21-07-21'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22-11-19'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'28-07-20'!$A$1:$F$89</definedName>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="144">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -491,6 +493,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - Rédaction de directives aux juristes afin de mettre en place la planification fiscale;</t>
+  </si>
+  <si>
+    <t>Le 31 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24866</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de sommaire de calcul de fond de roulement ;</t>
   </si>
 </sst>
 </file>
@@ -701,7 +715,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +737,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +951,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1193,6 +1213,21 @@
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1205,25 +1240,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1252,6 +1272,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1533,6 +1556,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87839958-BED6-AE46-F14C-EFC19821B38F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14337" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFB2F77-D3FF-DC96-7732-740A7B2B65D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,14 +2535,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2474,277 +2563,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2774,17 +2863,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="121"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="121"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="119"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2891,19 +2980,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2911,9 +3000,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2948,31 +3037,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2984,26 +3073,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3013,34 +3102,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3057,6 +3118,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5129,6 +5218,845 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
+      <c r="B34" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
+      <c r="B35" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
+      <c r="B38" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="72"/>
+      <c r="B39" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="72"/>
+      <c r="B40" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="72"/>
+      <c r="B42" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="72"/>
+      <c r="B43" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="72"/>
+      <c r="B44" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="72"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="72"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="72"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="72"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="72"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="72"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="72"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="72"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="72"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="72"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="72"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="85">
+        <v>10.5</v>
+      </c>
+      <c r="D66" s="86">
+        <v>400</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="72"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="72"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="72"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="94"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="95">
+        <v>4200</v>
+      </c>
+      <c r="F69" s="95"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="97"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="98">
+        <v>0</v>
+      </c>
+      <c r="F70" s="98"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="97"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="98">
+        <v>0</v>
+      </c>
+      <c r="F71" s="98"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="97"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="98">
+        <v>0</v>
+      </c>
+      <c r="F72" s="98"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="94"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="100">
+        <v>4200</v>
+      </c>
+      <c r="F73" s="100"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="97"/>
+      <c r="E74" s="102">
+        <v>210</v>
+      </c>
+      <c r="F74" s="102"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="104">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="105">
+        <v>418.95</v>
+      </c>
+      <c r="F75" s="102"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="94"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="108">
+        <v>4828.95</v>
+      </c>
+      <c r="F77" s="109"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="103"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="103"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="103"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="132"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="112">
+        <v>4828.95</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="113"/>
+      <c r="B83" s="133"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="114"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="73"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="115"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="115"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="129"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="129"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438304F5-19B4-42E2-BFE8-0983ED1E40B9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -5211,7 +6139,7 @@
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
     </row>
@@ -5306,7 +6234,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="60" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61"/>
@@ -5333,7 +6261,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="59"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="60" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="59"/>
@@ -5377,7 +6305,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F28" s="66"/>
     </row>
@@ -5428,7 +6356,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="72"/>
       <c r="B34" s="77" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79"/>
@@ -5448,7 +6376,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="72"/>
       <c r="B36" s="77" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="79"/>
@@ -5468,7 +6396,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="72"/>
       <c r="B38" s="77" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="79"/>
@@ -5488,7 +6416,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
       <c r="B40" s="77" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="79"/>
@@ -5497,9 +6425,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
-      <c r="B41" s="77" t="s">
-        <v>126</v>
-      </c>
+      <c r="B41" s="77"/>
       <c r="C41" s="78"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
@@ -5507,9 +6433,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
-      <c r="B42" s="77" t="s">
-        <v>139</v>
-      </c>
+      <c r="B42" s="77"/>
       <c r="C42" s="78"/>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
@@ -5517,9 +6441,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
-      <c r="B43" s="77" t="s">
-        <v>126</v>
-      </c>
+      <c r="B43" s="77"/>
       <c r="C43" s="78"/>
       <c r="D43" s="79"/>
       <c r="E43" s="79"/>
@@ -5527,9 +6449,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
-      <c r="B44" s="77" t="s">
-        <v>103</v>
-      </c>
+      <c r="B44" s="77"/>
       <c r="C44" s="78"/>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
@@ -5711,10 +6631,10 @@
       <c r="A66" s="72"/>
       <c r="B66" s="77"/>
       <c r="C66" s="85">
-        <v>10.5</v>
+        <v>3.75</v>
       </c>
       <c r="D66" s="86">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E66" s="90"/>
       <c r="F66" s="90"/>
@@ -5743,7 +6663,7 @@
       <c r="C69" s="94"/>
       <c r="D69" s="61"/>
       <c r="E69" s="95">
-        <v>4200</v>
+        <v>1443.75</v>
       </c>
       <c r="F69" s="95"/>
     </row>
@@ -5791,7 +6711,7 @@
       <c r="C73" s="94"/>
       <c r="D73" s="61"/>
       <c r="E73" s="100">
-        <v>4200</v>
+        <v>1443.75</v>
       </c>
       <c r="F73" s="100"/>
     </row>
@@ -5805,7 +6725,7 @@
       </c>
       <c r="D74" s="97"/>
       <c r="E74" s="102">
-        <v>210</v>
+        <v>72.19</v>
       </c>
       <c r="F74" s="102"/>
     </row>
@@ -5819,7 +6739,7 @@
       </c>
       <c r="D75" s="97"/>
       <c r="E75" s="105">
-        <v>418.95</v>
+        <v>144.01</v>
       </c>
       <c r="F75" s="102"/>
     </row>
@@ -5839,7 +6759,7 @@
       <c r="C77" s="94"/>
       <c r="D77" s="107"/>
       <c r="E77" s="108">
-        <v>4828.95</v>
+        <v>1659.95</v>
       </c>
       <c r="F77" s="109"/>
     </row>
@@ -5879,7 +6799,7 @@
       <c r="C81" s="132"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
-        <v>4828.95</v>
+        <v>1659.95</v>
       </c>
       <c r="F81" s="62"/>
     </row>
@@ -6104,14 +7024,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -6125,307 +7045,307 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121" t="s">
+      <c r="B57" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121" t="s">
+      <c r="B61" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="121" t="s">
+      <c r="B65" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -6563,19 +7483,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -6583,9 +7503,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -6620,31 +7540,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -6656,26 +7576,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6685,34 +7605,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B64:D64"/>
@@ -6729,6 +7621,34 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{5DE0DF59-5D69-4A7F-9BEF-9BA4FE756207}">
@@ -6886,14 +7806,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -6907,287 +7827,287 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -7325,19 +8245,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7345,9 +8265,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7382,31 +8302,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7418,26 +8338,794 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{7F1DDC8D-4518-41D2-8588-BEA6C464FC08}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224C32A-E791-48BE-9254-11D6F5162D54}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="51">
+        <v>24.25</v>
+      </c>
+      <c r="D68" s="52">
+        <v>285</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D68*C68</f>
+        <v>6911.25</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>60</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>6971.25</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>348.56</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>695.38</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>8015.1900000000005</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>8015.1900000000005</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7493,774 +9181,6 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{7F1DDC8D-4518-41D2-8588-BEA6C464FC08}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224C32A-E791-48BE-9254-11D6F5162D54}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="51">
-        <v>24.25</v>
-      </c>
-      <c r="D68" s="52">
-        <v>285</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D68*C68</f>
-        <v>6911.25</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>60</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>6971.25</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>348.56</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>695.38</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>8015.1900000000005</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>8015.1900000000005</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{F476F782-AE5B-42CF-B8B1-CAD677C0832A}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -8416,14 +9336,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -8437,267 +9357,267 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -8835,19 +9755,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8855,9 +9775,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8892,31 +9812,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="119"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="119"/>
-      <c r="E82" s="119"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="127" t="s">
+      <c r="A83" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="123" t="s">
+      <c r="A84" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8928,26 +9848,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="126" t="s">
+      <c r="A87" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="126"/>
-      <c r="C87" s="126"/>
-      <c r="D87" s="126"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="117"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="118"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8957,17 +9877,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
@@ -8980,26 +9909,17 @@
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{6CD9583C-9E31-4AF9-ADFE-77471EAF0A3F}">
@@ -9157,14 +10077,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9178,267 +10098,267 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9568,19 +10488,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9588,9 +10508,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -9625,31 +10545,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="119"/>
-      <c r="C82" s="119"/>
-      <c r="D82" s="119"/>
-      <c r="E82" s="119"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="124"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="124"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="127" t="s">
+      <c r="A83" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="123" t="s">
+      <c r="A84" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="123"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="123"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="123"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9661,26 +10581,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="126" t="s">
+      <c r="A87" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="126"/>
-      <c r="C87" s="126"/>
-      <c r="D87" s="126"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="117"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="118"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="123"/>
+      <c r="D89" s="123"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9690,13 +10610,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -9709,30 +10646,13 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{3CBF704E-D6EC-46AA-96B3-D6BCF0CFD8CC}">
@@ -9890,14 +10810,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9911,277 +10831,277 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -10311,19 +11231,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -10331,9 +11251,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -10368,31 +11288,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -10404,26 +11324,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -10433,34 +11353,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B79:D79"/>
@@ -10477,6 +11369,34 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{2B309465-D181-4674-B557-8B329EB249C8}">
@@ -10634,14 +11554,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -10655,283 +11575,283 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -11061,19 +11981,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11081,9 +12001,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11118,31 +12038,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11154,26 +12074,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11183,14 +12103,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -11203,30 +12139,14 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{C4B72124-0286-4B86-9C57-3808388C341F}">
@@ -11384,14 +12304,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -11405,53 +12325,53 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
@@ -11467,217 +12387,217 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="119"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="119"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -11807,19 +12727,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="122" t="s">
+      <c r="B78" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11827,9 +12747,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11864,31 +12784,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="124"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="124"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="123"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="123"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11900,26 +12820,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="126" t="s">
+      <c r="A88" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="126"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11929,17 +12849,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -11952,26 +12881,17 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{F9192322-4CDF-4FB1-B816-5FFB58D1DC30}">

--- a/Factures_Excel/1487 - Maranda Lauzon.xlsx
+++ b/Factures_Excel/1487 - Maranda Lauzon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A2F682-9C5D-4935-ACA6-EE8D0B1BE642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A7EE4-63FF-479E-B439-EAFF8B1C164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="22-11-19" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="2024-12-22 - 24-24717" sheetId="15" r:id="rId12"/>
     <sheet name="2025-03-01 - 25-24771" sheetId="16" r:id="rId13"/>
     <sheet name="2025-03-31 - 25-24866" sheetId="18" r:id="rId14"/>
+    <sheet name="2025-05-18 - 25-24994" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -49,6 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2024-12-22 - 24-24717'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-03-01 - 25-24771'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'2025-03-31 - 25-24866'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'2025-05-18 - 25-24994'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'21-07-21'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'22-11-19'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'28-07-20'!$A$1:$F$89</definedName>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="152">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -505,6 +507,30 @@
   </si>
   <si>
     <t xml:space="preserve"> - Préparation de sommaire de calcul de fond de roulement ;</t>
+  </si>
+  <si>
+    <t>Le 18 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24994</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail en lien avec la vérification fiscale : analyse des demandes du gouvernement, analyse du dossier complet rétroactivement,</t>
+  </si>
+  <si>
+    <t>discussions téléphoniques avec vous, le gouvernement, vos comptables, préparation d'un mémorandum fiscal allégé pour soumettre,</t>
+  </si>
+  <si>
+    <t>rassembler les différentes documents demandés et soumettre le tout ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'une répartition du prix de vente pour vos notaires ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de la qualification à la notion d'AAPE pour fins de qualification à l'exonération ;</t>
   </si>
 </sst>
 </file>
@@ -1213,20 +1239,8 @@
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1240,10 +1254,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1272,9 +1301,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1622,6 +1648,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFB2F77-D3FF-DC96-7732-740A7B2B65D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14337" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CA4F55-3034-CD68-44ED-D585C9C1933B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,14 +2627,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2563,277 +2655,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119" t="s">
+      <c r="B45" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2863,17 +2955,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="119"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="122"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="119"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2980,19 +3072,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3000,9 +3092,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3037,31 +3129,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3073,26 +3165,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3102,6 +3194,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3118,34 +3238,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3182,10 +3274,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="128"/>
+      <c r="C1" s="129"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3823,13 +3915,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4300,10 +4392,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="132"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
         <v>3118.7000000000003</v>
@@ -4320,30 +4412,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="113"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
       <c r="F83" s="114"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="135" t="s">
+      <c r="A84" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4363,14 +4455,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="129" t="s">
+      <c r="A88" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4656,13 +4748,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5123,10 +5215,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="132"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
         <v>1911.46</v>
@@ -5143,30 +5235,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="113"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
       <c r="F83" s="114"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="135" t="s">
+      <c r="A84" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5186,14 +5278,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="129" t="s">
+      <c r="A88" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5479,13 +5571,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5962,10 +6054,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="132"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
         <v>4828.95</v>
@@ -5982,30 +6074,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="113"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
       <c r="F83" s="114"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="135" t="s">
+      <c r="A84" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6025,14 +6117,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="129" t="s">
+      <c r="A88" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6052,6 +6144,837 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438304F5-19B4-42E2-BFE8-0983ED1E40B9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="72"/>
+      <c r="B34" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="72"/>
+      <c r="B35" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
+      <c r="B38" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="72"/>
+      <c r="B39" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="72"/>
+      <c r="B40" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="72"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="72"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="72"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="72"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="72"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="72"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="72"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="72"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="72"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="72"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="72"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="72"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="72"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="72"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="72"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="72"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="72"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="72"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="72"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="72"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="85">
+        <v>3.75</v>
+      </c>
+      <c r="D66" s="86">
+        <v>385</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="72"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="72"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="72"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="94"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="95">
+        <v>1443.75</v>
+      </c>
+      <c r="F69" s="95"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="97"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="98">
+        <v>0</v>
+      </c>
+      <c r="F70" s="98"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="97"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="98">
+        <v>0</v>
+      </c>
+      <c r="F71" s="98"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="97"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="98">
+        <v>0</v>
+      </c>
+      <c r="F72" s="98"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="94"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="100">
+        <v>1443.75</v>
+      </c>
+      <c r="F73" s="100"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="97"/>
+      <c r="E74" s="102">
+        <v>72.19</v>
+      </c>
+      <c r="F74" s="102"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="104">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="97"/>
+      <c r="E75" s="105">
+        <v>144.01</v>
+      </c>
+      <c r="F75" s="102"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="94"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="108">
+        <v>1659.95</v>
+      </c>
+      <c r="F77" s="109"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="103"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="103"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62">
+        <v>0</v>
+      </c>
+      <c r="F79" s="62"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="103"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="133"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="112">
+        <v>1659.95</v>
+      </c>
+      <c r="F81" s="62"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="113"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="114"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="73"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="115"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="115"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EA5CFE-A67C-4921-A5DB-3842BF49F08D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6139,7 +7062,7 @@
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
-      <c r="D9" s="137"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
     </row>
@@ -6234,7 +7157,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="60" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61"/>
@@ -6305,7 +7228,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F28" s="66"/>
     </row>
@@ -6318,13 +7241,13 @@
       <c r="F29" s="69"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="70"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6356,7 +7279,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="72"/>
       <c r="B34" s="77" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79"/>
@@ -6366,7 +7289,7 @@
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="72"/>
       <c r="B35" s="77" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="79"/>
@@ -6376,7 +7299,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="72"/>
       <c r="B36" s="77" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="79"/>
@@ -6396,7 +7319,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="72"/>
       <c r="B38" s="77" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="79"/>
@@ -6416,7 +7339,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
       <c r="B40" s="77" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C40" s="80"/>
       <c r="D40" s="79"/>
@@ -6425,7 +7348,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
-      <c r="B41" s="77"/>
+      <c r="B41" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C41" s="78"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
@@ -6433,7 +7358,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
-      <c r="B42" s="77"/>
+      <c r="B42" s="77" t="s">
+        <v>150</v>
+      </c>
       <c r="C42" s="78"/>
       <c r="D42" s="79"/>
       <c r="E42" s="79"/>
@@ -6441,7 +7368,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
-      <c r="B43" s="77"/>
+      <c r="B43" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C43" s="78"/>
       <c r="D43" s="79"/>
       <c r="E43" s="79"/>
@@ -6449,7 +7378,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
-      <c r="B44" s="77"/>
+      <c r="B44" s="77" t="s">
+        <v>151</v>
+      </c>
       <c r="C44" s="78"/>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
@@ -6457,7 +7388,9 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="72"/>
-      <c r="B45" s="77"/>
+      <c r="B45" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C45" s="78"/>
       <c r="D45" s="79"/>
       <c r="E45" s="79"/>
@@ -6465,7 +7398,9 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="72"/>
-      <c r="B46" s="77"/>
+      <c r="B46" s="77" t="s">
+        <v>103</v>
+      </c>
       <c r="C46" s="78"/>
       <c r="D46" s="79"/>
       <c r="E46" s="79"/>
@@ -6473,7 +7408,9 @@
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="72"/>
-      <c r="B47" s="77"/>
+      <c r="B47" s="77" t="s">
+        <v>126</v>
+      </c>
       <c r="C47" s="78"/>
       <c r="D47" s="79"/>
       <c r="E47" s="79"/>
@@ -6481,7 +7418,9 @@
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="72"/>
-      <c r="B48" s="77"/>
+      <c r="B48" s="77" t="s">
+        <v>40</v>
+      </c>
       <c r="C48" s="78"/>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
@@ -6601,7 +7540,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="72"/>
-      <c r="B63" s="82"/>
+      <c r="B63" s="77"/>
       <c r="C63" s="83"/>
       <c r="D63" s="84"/>
       <c r="E63" s="79"/>
@@ -6609,7 +7548,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="72"/>
-      <c r="B64" s="82"/>
+      <c r="B64" s="77"/>
       <c r="C64" s="116"/>
       <c r="D64" s="76"/>
       <c r="E64" s="79"/>
@@ -6631,7 +7570,7 @@
       <c r="A66" s="72"/>
       <c r="B66" s="77"/>
       <c r="C66" s="85">
-        <v>3.75</v>
+        <v>17.25</v>
       </c>
       <c r="D66" s="86">
         <v>385</v>
@@ -6641,7 +7580,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="72"/>
-      <c r="B67" s="82"/>
+      <c r="B67" s="77"/>
       <c r="C67" s="85"/>
       <c r="D67" s="86"/>
       <c r="E67" s="79"/>
@@ -6649,7 +7588,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="72"/>
-      <c r="B68" s="82"/>
+      <c r="B68" s="77"/>
       <c r="C68" s="93"/>
       <c r="D68" s="93"/>
       <c r="E68" s="93"/>
@@ -6663,7 +7602,7 @@
       <c r="C69" s="94"/>
       <c r="D69" s="61"/>
       <c r="E69" s="95">
-        <v>1443.75</v>
+        <v>6641.25</v>
       </c>
       <c r="F69" s="95"/>
     </row>
@@ -6711,7 +7650,7 @@
       <c r="C73" s="94"/>
       <c r="D73" s="61"/>
       <c r="E73" s="100">
-        <v>1443.75</v>
+        <v>6641.25</v>
       </c>
       <c r="F73" s="100"/>
     </row>
@@ -6725,7 +7664,7 @@
       </c>
       <c r="D74" s="97"/>
       <c r="E74" s="102">
-        <v>72.19</v>
+        <v>332.06</v>
       </c>
       <c r="F74" s="102"/>
     </row>
@@ -6739,7 +7678,7 @@
       </c>
       <c r="D75" s="97"/>
       <c r="E75" s="105">
-        <v>144.01</v>
+        <v>662.46</v>
       </c>
       <c r="F75" s="102"/>
     </row>
@@ -6759,7 +7698,7 @@
       <c r="C77" s="94"/>
       <c r="D77" s="107"/>
       <c r="E77" s="108">
-        <v>1659.95</v>
+        <v>7635.77</v>
       </c>
       <c r="F77" s="109"/>
     </row>
@@ -6793,13 +7732,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="59"/>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="132"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="111"/>
       <c r="E81" s="112">
-        <v>1659.95</v>
+        <v>7635.77</v>
       </c>
       <c r="F81" s="62"/>
     </row>
@@ -6813,30 +7752,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="113"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="134"/>
-      <c r="D83" s="134"/>
-      <c r="E83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
       <c r="F83" s="114"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="135" t="s">
+      <c r="A84" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
       <c r="F84" s="73"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="136"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6856,14 +7795,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="129" t="s">
+      <c r="A88" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7024,14 +7963,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -7045,307 +7984,307 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119" t="s">
+      <c r="B45" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119" t="s">
+      <c r="B47" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119" t="s">
+      <c r="B49" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119" t="s">
+      <c r="B57" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119" t="s">
+      <c r="B59" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119" t="s">
+      <c r="B61" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119" t="s">
+      <c r="B63" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="119" t="s">
+      <c r="B65" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -7483,19 +8422,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -7503,9 +8442,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -7540,31 +8479,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -7576,26 +8515,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7605,6 +8544,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B64:D64"/>
@@ -7621,34 +8588,6 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{5DE0DF59-5D69-4A7F-9BEF-9BA4FE756207}">
@@ -7806,14 +8745,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -7827,287 +8766,287 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119" t="s">
+      <c r="B43" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119" t="s">
+      <c r="B45" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -8245,19 +9184,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -8265,9 +9204,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -8302,31 +9241,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -8338,26 +9277,794 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{7F1DDC8D-4518-41D2-8588-BEA6C464FC08}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224C32A-E791-48BE-9254-11D6F5162D54}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="51">
+        <v>24.25</v>
+      </c>
+      <c r="D68" s="52">
+        <v>285</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D68*C68</f>
+        <v>6911.25</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>60</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>6971.25</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>348.56</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>695.38</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>8015.1900000000005</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>8015.1900000000005</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -8413,774 +10120,6 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{7F1DDC8D-4518-41D2-8588-BEA6C464FC08}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224C32A-E791-48BE-9254-11D6F5162D54}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="51">
-        <v>24.25</v>
-      </c>
-      <c r="D68" s="52">
-        <v>285</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D68*C68</f>
-        <v>6911.25</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>60</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>6971.25</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>348.56</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>695.38</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>8015.1900000000005</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>8015.1900000000005</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{F476F782-AE5B-42CF-B8B1-CAD677C0832A}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -9336,14 +10275,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -9357,267 +10296,267 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -9755,19 +10694,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="121"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="126" t="s">
+      <c r="B77" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -9775,9 +10714,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="121"/>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -9812,31 +10751,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
+      <c r="B82" s="120"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="120"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="128"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -9848,26 +10787,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="122"/>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="119"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9877,14 +10816,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
@@ -9897,29 +10851,14 @@
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{6CD9583C-9E31-4AF9-ADFE-77471EAF0A3F}">
@@ -10077,14 +11016,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -10098,267 +11037,267 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -10488,19 +11427,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="121"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="126" t="s">
+      <c r="B77" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -10508,9 +11447,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="121"/>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -10545,31 +11484,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="124"/>
-      <c r="C82" s="124"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="124"/>
+      <c r="B82" s="120"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="120"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
-      <c r="F83" s="118"/>
+      <c r="B83" s="128"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="128"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="127" t="s">
+      <c r="A84" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -10581,26 +11520,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="122"/>
-      <c r="C89" s="123"/>
-      <c r="D89" s="123"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="119"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -10610,6 +11549,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
@@ -10622,37 +11592,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B32:B67" xr:uid="{3CBF704E-D6EC-46AA-96B3-D6BCF0CFD8CC}">
@@ -10810,14 +11749,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -10831,277 +11770,277 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -11231,19 +12170,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -11251,9 +12190,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -11288,31 +12227,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -11324,26 +12263,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -11353,6 +12292,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B79:D79"/>
@@ -11369,34 +12336,6 @@
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{2B309465-D181-4674-B557-8B329EB249C8}">
@@ -11554,14 +12493,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -11575,283 +12514,283 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -11981,19 +12920,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12001,9 +12940,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12038,31 +12977,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12074,26 +13013,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12103,6 +13042,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B32:D32"/>
@@ -12115,38 +13086,6 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{C4B72124-0286-4B86-9C57-3808388C341F}">
@@ -12304,14 +13243,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -12325,53 +13264,53 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="28"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
@@ -12387,217 +13326,217 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="119"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="119"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
@@ -12727,19 +13666,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="126" t="s">
+      <c r="B78" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -12747,9 +13686,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="126"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -12784,31 +13723,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="124"/>
-      <c r="C83" s="124"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="124"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="120"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="128"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="128"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -12820,26 +13759,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="122"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="119"/>
+      <c r="D90" s="119"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -12849,14 +13788,29 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -12869,29 +13823,14 @@
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B32:B68" xr:uid="{F9192322-4CDF-4FB1-B816-5FFB58D1DC30}">
